--- a/UseCaseScenariji/Prijava-pojedinca.xlsx
+++ b/UseCaseScenariji/Prijava-pojedinca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,16 @@
     <t>2. Policajac svjedoči činjenju krivičnog dijela, te prilazi pojedincu.</t>
   </si>
   <si>
-    <t>Prijava pojedinca zbog činjenja krivičnog dijela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Vrši evidentaciju i obradu podataka pojedinca, </t>
-  </si>
-  <si>
     <t>4. Svrstava krivično dijelo u tabelu krivičnih dijela</t>
   </si>
   <si>
     <t>5. Administrator provijerava unesene podatke, njihovu validnost, te ih postavlja u bazu podataka sistema.</t>
+  </si>
+  <si>
+    <t>PRIJAVA POJEDINCA ZBOG ČINJENJA KRIVIČNOG DJELA</t>
+  </si>
+  <si>
+    <t>3. Vrši evidentaciju i obradu podataka pojedinca.</t>
   </si>
 </sst>
 </file>
@@ -64,12 +64,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -99,14 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -114,13 +120,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,7 +439,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,46 +450,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
